--- a/data/tools/extractJson2Excel/processed_dang1new.xlsx
+++ b/data/tools/extractJson2Excel/processed_dang1new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
   <si>
     <t>robot</t>
   </si>
@@ -25,223 +25,193 @@
     <t>user_intent</t>
   </si>
   <si>
-    <t>Cậu biết từ 'thức dậy' trong tiếng Anh là gì không? Để tớ nói cho cậu nhé, nó là 'wake up'. Nào, nhắc lại với tớ: 'wake up'!</t>
-  </si>
-  <si>
-    <t>Tuyệt vời! 'Wake up' có nghĩa là bắt đầu một ngày mới. Ví dụ: 'I wake up at 7 AM.' Cậu thử nói theo tớ nhé!</t>
-  </si>
-  <si>
-    <t>Cậu có biết khi nào thì cậu thường 'wake up' không? Tớ thường 'wake up' vào buổi sáng. Cậu thử nói: 'I usually wake up in the morning.'</t>
-  </si>
-  <si>
-    <t>Nếu cậu không muốn dậy sớm, cậu có thể nói: 'I don’t want to wake up early.' Cậu có muốn thử không?</t>
-  </si>
-  <si>
-    <t>Khi cậu thức dậy, cậu có thể cảm thấy buồn ngủ. Cậu có biết câu này không? 'I feel sleepy when I wake up.' Nói thử nào!</t>
-  </si>
-  <si>
-    <t>Cậu có biết từ nào khác liên quan đến 'wake up' không? Ví dụ: 'get up' cũng có nghĩa là dậy. Nói thử: 'I get up after I wake up.'</t>
-  </si>
-  <si>
-    <t>Cậu có thể hỏi người khác về thói quen thức dậy của họ như thế này: 'What time do you wake up?' Cậu thử nói theo tớ nhé!</t>
-  </si>
-  <si>
-    <t>Nếu cậu không muốn nói về việc thức dậy, cậu có thể nói: 'I’d rather talk about something else.' Cậu có muốn thử không?</t>
-  </si>
-  <si>
-    <t>Cậu có biết rằng 'wake up' cũng có thể dùng trong ngữ cảnh khác không? Ví dụ: 'Wake up to reality.' Cậu có hiểu không?</t>
-  </si>
-  <si>
-    <t>Nếu cậu không muốn học thêm về 'wake up', tớ có thể giúp cậu với từ khác. Cậu có muốn không?</t>
-  </si>
-  <si>
-    <t>Cậu có thể nói: 'I wake up feeling refreshed.' Câu này có nghĩa là cậu thức dậy với cảm giác thoải mái. Cậu có muốn thử không?</t>
-  </si>
-  <si>
-    <t>Cậu biết từ 'đánh răng' trong tiếng Anh là gì không? Để tớ nói cho cậu nhé, nó là 'brush teeth'. Nào, nhắc lại với tớ: 'brush teeth'!</t>
-  </si>
-  <si>
-    <t>Tuyệt vời! 'Brush teeth' có nghĩa là làm sạch răng miệng. Cậu có thể nói: 'I brush my teeth every morning.' Nói thử nào!</t>
-  </si>
-  <si>
-    <t>Cậu có biết tại sao chúng ta cần 'brush teeth' không? Để giữ cho răng khỏe mạnh! Cậu có muốn biết thêm không?</t>
-  </si>
-  <si>
-    <t>Không sao! Khi cậu 'brush teeth', cậu cũng có thể nói: 'I use toothpaste.' Nói thử đi!</t>
-  </si>
-  <si>
-    <t>Cậu có biết rằng nếu không 'brush teeth', răng sẽ bị sâu không? Điều đó không tốt chút nào!</t>
-  </si>
-  <si>
-    <t>Cậu có thể hỏi: 'How often do you brush your teeth?' Nói thử câu này nhé!</t>
-  </si>
-  <si>
-    <t>Nếu cậu không muốn nói về 'brush teeth', cậu có thể chia sẻ sở thích khác không?</t>
-  </si>
-  <si>
-    <t>Chơi game cũng thú vị! Nhưng nhớ 'brush teeth' sau khi ăn snack nhé! Cậu có làm vậy không?</t>
-  </si>
-  <si>
-    <t>Cậu có biết từ 'toothbrush' không? Đó là bàn chải đánh răng. Nói thử: 'I need a new toothbrush.'</t>
-  </si>
-  <si>
-    <t>Cậu có thể nói: 'I brush my teeth before bed.' Câu này rất quan trọng đấy! Nói thử nào!</t>
-  </si>
-  <si>
-    <t>Nếu cậu không muốn học thêm về 'brush teeth', cậu có thể nói về điều gì khác không?</t>
-  </si>
-  <si>
-    <t>Tớ hiểu rồi, đôi khi cậu cần nghỉ ngơi. Nhưng nhớ 'brush teeth' nhé! Cậu có muốn tiếp tục không?</t>
-  </si>
-  <si>
-    <t>Cậu biết từ 'rửa mặt' trong tiếng Anh là gì không? Để tớ nói cho cậu nhé, nó là 'wash face'. Nào, nhắc lại với tớ: wash face!</t>
-  </si>
-  <si>
-    <t>Tuyệt vời! 'Wash face' có nghĩa là làm sạch mặt. Cậu có thể nói: 'I wash my face every morning.' Cậu thử nói theo tớ nhé!</t>
-  </si>
-  <si>
-    <t>Cậu có biết khi nào thì chúng ta nên 'wash face' không? Thường thì sau khi thức dậy hoặc trước khi đi ngủ. Cậu có làm vậy không?</t>
-  </si>
-  <si>
-    <t>Không sao! Nếu cậu không rửa mặt thường xuyên, cậu có thể nói: 'I sometimes forget to wash my face.' Cậu thử nói câu này đi!</t>
-  </si>
-  <si>
-    <t>Khi cậu rửa mặt, cậu có thể dùng sữa rửa mặt. Trong tiếng Anh, chúng ta gọi là 'facial cleanser'. Cậu có biết không?</t>
-  </si>
-  <si>
-    <t>Sữa rửa mặt giúp làm sạch da mặt. Cậu có thể nói: 'I use a facial cleanser to wash my face.' Nói thử nào!</t>
-  </si>
-  <si>
-    <t>Nếu cậu không thích rửa mặt, cậu có thể nói: 'I don’t like to wash my face.' Cậu có cảm thấy như vậy không?</t>
-  </si>
-  <si>
-    <t>Cậu có thể thử tìm một sản phẩm mà cậu thích hơn. Cậu có muốn biết thêm về các loại sữa rửa mặt không?</t>
-  </si>
-  <si>
-    <t>Khi cậu rửa mặt, cậu có thể cảm thấy thư giãn. Cậu có thể nói: 'Washing my face feels refreshing.' Cậu có thấy vậy không?</t>
-  </si>
-  <si>
-    <t>Cậu có thể hỏi người khác: 'How often do you wash your face?' Nói thử câu này đi!</t>
-  </si>
-  <si>
-    <t>Nếu cậu không biết cách rửa mặt đúng cách, cậu có thể tìm hiểu thêm. Cậu có muốn tớ hướng dẫn không?</t>
-  </si>
-  <si>
-    <t>Cậu có thể nói: 'I wash my face with warm water.' Cậu có biết tại sao nước ấm lại tốt không?</t>
-  </si>
-  <si>
-    <t>Nước ấm giúp mở lỗ chân lông và làm sạch da tốt hơn. Cậu có thể thử nói: 'Warm water helps clean my face better.' Nói thử nào!</t>
-  </si>
-  <si>
-    <t>Cậu có thể nói: 'I feel good after washing my face.' Cậu có muốn thử không?</t>
-  </si>
-  <si>
-    <t>Wake up!</t>
-  </si>
-  <si>
-    <t>I wake up at 7 AM.</t>
-  </si>
-  <si>
-    <t>I usually wake up in the morning.</t>
-  </si>
-  <si>
-    <t>I don’t want to wake up early.</t>
-  </si>
-  <si>
-    <t>I feel sleepy when I wake up.</t>
-  </si>
-  <si>
-    <t>I get up after I wake up.</t>
-  </si>
-  <si>
-    <t>What time do you wake up?</t>
-  </si>
-  <si>
-    <t>I’d rather talk about something else.</t>
-  </si>
-  <si>
-    <t>Um, not really.</t>
+    <t>Cậu biết từ 'wake up' trong tiếng Anh có nghĩa là gì không? Nó có nghĩa là 'thức dậy'. Nào, nhắc lại với tớ: wake up!</t>
+  </si>
+  <si>
+    <t>Tuyệt vời! 'Wake up' thường được dùng khi chúng ta muốn ai đó dậy. Ví dụ: 'Wake up, it's morning!' Cậu thử nói theo tớ nhé!</t>
+  </si>
+  <si>
+    <t>Nhưng nếu cậu không thích dậy sớm thì sao? Cậu có thể nói: 'I don't want to wake up early.' Cậu có muốn thử không?</t>
+  </si>
+  <si>
+    <t>Cậu đừng lo! Chúng ta sẽ học từ từ. 'Wake up' cũng có thể dùng trong câu như: 'I wake up at 7 AM every day.' Cậu có thể nói thử không?</t>
+  </si>
+  <si>
+    <t>Cậu có biết có cách nào khác để nói 'thức dậy' không? Chúng ta có thể dùng 'get up' nữa. Ví dụ: 'I get up after I wake up.' Cậu có muốn tìm hiểu thêm không?</t>
+  </si>
+  <si>
+    <t>Rất tốt! 'Get up' có nghĩa là 'ra khỏi giường'. Cậu có thể nói: 'I get up when my alarm rings.' Cậu có muốn thử không?</t>
+  </si>
+  <si>
+    <t>Haha, giày mới nghe thú vị đấy! Nhưng quay lại với 'wake up', cậu có thể hỏi: 'What time do you wake up?' Cậu thử hỏi tớ nhé!</t>
+  </si>
+  <si>
+    <t>Không sao! Nếu cậu muốn, chúng ta có thể nói về thói quen buổi sáng. Ví dụ: 'After I wake up, I brush my teeth.' Cậu có muốn thử không?</t>
+  </si>
+  <si>
+    <t>Tuyệt! Cậu có thể nói: 'I wake up, then I eat breakfast.' Cậu có biết bữa sáng trong tiếng Anh là gì không?</t>
+  </si>
+  <si>
+    <t>Chắc chắn rồi! Cậu có thể dùng 'rise' thay cho 'wake up'. Ví dụ: 'I rise early to exercise.' Cậu có muốn thử không?</t>
+  </si>
+  <si>
+    <t>Cậu đừng nản lòng! Học từ mới là một quá trình. Cuối cùng, cậu có thể nói: 'I wake up and start my day.' Cậu có thể thử nói câu này không?</t>
+  </si>
+  <si>
+    <t>Rất tốt! Cuối cùng, cậu có thể viết một đoạn ngắn về thói quen buổi sáng của mình. Ví dụ: 'I wake up at 6 AM, then I eat breakfast and go to work.' Cậu có muốn thử không?</t>
+  </si>
+  <si>
+    <t>Cậu biết cụm 'Brush teeth' trong tiếng Việt là gì không? Nó có nghĩa là 'Đánh răng'. Nào, nhắc lại với tớ: 'Brush teeth'!</t>
+  </si>
+  <si>
+    <t>Tuyệt vời! Cậu có biết tại sao chúng ta cần phải 'brush teeth' không? Để giữ cho răng miệng sạch sẽ và khỏe mạnh. Nói thử: 'I brush my teeth every day.'</t>
+  </si>
+  <si>
+    <t>Nếu cậu không đánh răng, điều gì sẽ xảy ra nhỉ? Có thể cậu sẽ bị sâu răng. Nói thử: 'If I don’t brush my teeth, I might get cavities.'</t>
+  </si>
+  <si>
+    <t>Đừng lo, tớ sẽ giúp cậu! Cậu có biết cách nào khác để nói 'brush teeth' không? Chúng ta cũng có thể nói 'clean my teeth'. Nói thử: 'I clean my teeth.'</t>
+  </si>
+  <si>
+    <t>Rất tốt! Bây giờ, cậu có thể dùng 'brush teeth' trong một câu dài hơn không? Ví dụ: 'I brush my teeth after breakfast.' Nói thử nào!</t>
+  </si>
+  <si>
+    <t>Chắc chắn rồi! Một câu khác có thể là: 'I always brush my teeth before going to bed.' Cậu có muốn thử không?</t>
+  </si>
+  <si>
+    <t>Quay lại với 'brush teeth', cậu có biết thời gian tốt nhất để đánh răng là khi nào không? Thường là vào buổi sáng và buổi tối. Nói thử: 'I brush my teeth in the morning and at night.'</t>
+  </si>
+  <si>
+    <t>Tốt lắm! Cậu có biết rằng việc đánh răng cũng giúp hơi thở thơm tho không? Nói thử: 'Brushing my teeth keeps my breath fresh.'</t>
+  </si>
+  <si>
+    <t>Chính xác! Cậu có biết rằng có nhiều loại bàn chải đánh răng khác nhau không? Ví dụ: bàn chải mềm và bàn chải cứng. Nói thử: 'There are soft and hard toothbrushes.'</t>
+  </si>
+  <si>
+    <t>Không sao cả! Cậu có muốn biết thêm về cách chọn bàn chải đánh răng không? Nói thử: 'I want to learn about choosing a toothbrush.'</t>
+  </si>
+  <si>
+    <t>Có chứ! Một cách khác để nói là 'toothbrush' là 'bàn chải răng'. Cậu có thể nói: 'I need a new toothbrush.' Nói thử nào!</t>
+  </si>
+  <si>
+    <t>Cuối cùng, cậu có thể hỏi người khác: 'How often do you brush your teeth?' Nói thử đi!</t>
+  </si>
+  <si>
+    <t>Cậu biết cụm từ 'wash face' trong tiếng Việt là gì không? Nó có nghĩa là 'rửa mặt'. Nào, nhắc lại với tớ: wash face!</t>
+  </si>
+  <si>
+    <t>Tuyệt vời! 'Wash face' là một hành động rất quan trọng để giữ gìn vệ sinh. Cậu có thường xuyên rửa mặt không?</t>
+  </si>
+  <si>
+    <t>Đúng rồi! Cậu có thể nói: 'I wash my face every day.' Nói thử câu này với tớ nhé!</t>
+  </si>
+  <si>
+    <t>Rất tốt! Ngoài ra, cậu có biết rằng 'wash face' cũng có thể dùng trong câu hỏi không? Ví dụ: 'Do you wash your face in the morning?' Nói thử nào!</t>
+  </si>
+  <si>
+    <t>Cậu có biết rằng việc rửa mặt giúp làm sạch bụi bẩn và dầu thừa không? Nói thử: 'Washing my face helps me feel fresh.'</t>
+  </si>
+  <si>
+    <t>Đúng rồi! Nhưng nếu cậu không có thời gian, cậu có thể cảm thấy khó chịu. Cậu có nghĩ rằng 'rửa mặt' là một việc khó không?</t>
+  </si>
+  <si>
+    <t>Cậu có thể rửa mặt bằng nước ấm hoặc nước lạnh. Cậu thích dùng nước nào hơn?</t>
+  </si>
+  <si>
+    <t>Hay quá! Cậu có biết rằng có nhiều sản phẩm rửa mặt khác nhau không? Chỉ tớ thêm với!</t>
+  </si>
+  <si>
+    <t>Có nhiều loại sữa rửa mặt như gel, kem, hay dạng bọt. Cậu đã thử loại nào chưa?</t>
+  </si>
+  <si>
+    <t>Cậu có thể hỏi bạn bè: 'What face wash do you use?' Nói thử câu này đi!</t>
+  </si>
+  <si>
+    <t>Cậu có nghĩ rằng việc rửa mặt là cần thiết không? Học cái này để làm gì nhỉ?</t>
+  </si>
+  <si>
+    <t>Rửa mặt giúp giữ cho làn da sạch sẽ và khỏe mạnh. Cậu có muốn thử một sản phẩm mới không?</t>
+  </si>
+  <si>
+    <t>Hay quá!</t>
+  </si>
+  <si>
+    <t>Wow, dễ hiểu thật!</t>
+  </si>
+  <si>
+    <t>Khó quá, tớ không học nổi đâu!</t>
+  </si>
+  <si>
+    <t>Ừ thì chắc là đúng.</t>
+  </si>
+  <si>
+    <t>Chỉ tớ thêm với!</t>
+  </si>
+  <si>
+    <t>Tớ vừa mua giày mới, đẹp không cậu?</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Ok.</t>
+  </si>
+  <si>
+    <t>Có cách dùng nào khác không?</t>
   </si>
   <si>
     <t>Brush teeth!</t>
   </si>
   <si>
-    <t>I brush my teeth every morning.</t>
-  </si>
-  <si>
-    <t>Có, nhưng tớ không chắc lắm.</t>
-  </si>
-  <si>
-    <t>I use toothpaste.</t>
-  </si>
-  <si>
-    <t>Tớ không thích học về răng miệng.</t>
-  </si>
-  <si>
-    <t>How often do you brush your teeth?</t>
-  </si>
-  <si>
-    <t>Tớ thích chơi game.</t>
-  </si>
-  <si>
-    <t>Tớ không thường làm vậy.</t>
-  </si>
-  <si>
-    <t>I need a new toothbrush.</t>
-  </si>
-  <si>
-    <t>I brush my teeth before bed.</t>
+    <t>I brush my teeth every day.</t>
   </si>
   <si>
     <t>Wash face!</t>
   </si>
   <si>
-    <t>I wash my face every morning.</t>
-  </si>
-  <si>
-    <t>Không chắc lắm.</t>
-  </si>
-  <si>
-    <t>I sometimes forget to wash my face.</t>
-  </si>
-  <si>
-    <t>Không, tớ không biết.</t>
-  </si>
-  <si>
-    <t>I use a facial cleanser to wash my face.</t>
-  </si>
-  <si>
-    <t>Đúng vậy, tớ không thích.</t>
-  </si>
-  <si>
-    <t>Không, tớ không muốn.</t>
-  </si>
-  <si>
-    <t>Có, nhưng không phải lúc nào cũng vậy.</t>
-  </si>
-  <si>
-    <t>How often do you wash your face?</t>
-  </si>
-  <si>
-    <t>Tớ không biết, nhưng không cần đâu.</t>
-  </si>
-  <si>
-    <t>intent_positive</t>
-  </si>
-  <si>
-    <t>intent_neutral</t>
-  </si>
-  <si>
-    <t>intent_negative</t>
-  </si>
-  <si>
-    <t>intent_learn_more</t>
-  </si>
-  <si>
-    <t>silence</t>
-  </si>
-  <si>
-    <t>intent_fallback</t>
+    <t>Ừ, tớ rửa mặt mỗi ngày.</t>
+  </si>
+  <si>
+    <t>I wash my face every day.</t>
+  </si>
+  <si>
+    <t>Do you wash your face in the morning?</t>
+  </si>
+  <si>
+    <t>Washing my face helps me feel fresh.</t>
+  </si>
+  <si>
+    <t>Tớ thích nước lạnh hơn.</t>
+  </si>
+  <si>
+    <t>Có, tớ muốn biết thêm.</t>
+  </si>
+  <si>
+    <t>Tớ chưa thử loại nào cả.</t>
+  </si>
+  <si>
+    <t>What face wash do you use?</t>
+  </si>
+  <si>
+    <t>Tớ không biết nữa.</t>
+  </si>
+  <si>
+    <t>user_intent_positive</t>
+  </si>
+  <si>
+    <t>user_intent_negative</t>
+  </si>
+  <si>
+    <t>user_intent_neutral</t>
+  </si>
+  <si>
+    <t>user_intent_learn_more</t>
+  </si>
+  <si>
+    <t>user_intent_fallback</t>
+  </si>
+  <si>
+    <t>user_silence</t>
   </si>
 </sst>
 </file>
@@ -599,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,10 +591,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -632,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -643,10 +613,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -654,10 +624,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -665,10 +635,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -676,10 +646,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -687,10 +657,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -698,10 +668,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -709,26 +679,32 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -736,10 +712,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -747,10 +723,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -758,10 +734,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -769,10 +745,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -780,10 +756,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -791,10 +767,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -802,10 +778,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -813,10 +789,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -824,10 +800,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -835,26 +811,32 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -862,10 +844,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -873,10 +855,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
         <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -884,10 +866,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -895,10 +877,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -906,10 +888,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -917,10 +899,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -928,10 +910,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -939,10 +921,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -950,10 +932,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -961,10 +943,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -972,10 +954,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -983,26 +965,21 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
       <c r="C37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
